--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CDE/10/seed1/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CDE/10/seed1/result_data_KNN.xlsx
@@ -502,7 +502,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.114</v>
+        <v>-12.481</v>
       </c>
       <c r="D4" t="n">
         <v>-8.23</v>
@@ -553,10 +553,10 @@
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-13.568</v>
+        <v>-12.793</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.56</v>
+        <v>-7.7</v>
       </c>
       <c r="E7" t="n">
         <v>17.28</v>
@@ -692,7 +692,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.062000000000001</v>
+        <v>-8.24</v>
       </c>
       <c r="E15" t="n">
         <v>16.67</v>
@@ -706,13 +706,13 @@
         <v>3.96</v>
       </c>
       <c r="C16" t="n">
-        <v>-14.14</v>
+        <v>-13.331</v>
       </c>
       <c r="D16" t="n">
         <v>-9.27</v>
       </c>
       <c r="E16" t="n">
-        <v>16.832</v>
+        <v>16.65</v>
       </c>
     </row>
     <row r="17">
@@ -763,7 +763,7 @@
         <v>-7.9</v>
       </c>
       <c r="E19" t="n">
-        <v>16.138</v>
+        <v>16.45</v>
       </c>
     </row>
     <row r="20">
@@ -794,7 +794,7 @@
         <v>-13.13</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.156000000000001</v>
+        <v>-8.1</v>
       </c>
       <c r="E21" t="n">
         <v>16.94</v>
@@ -811,7 +811,7 @@
         <v>-15.07</v>
       </c>
       <c r="D22" t="n">
-        <v>-7.846000000000001</v>
+        <v>-7.900000000000001</v>
       </c>
       <c r="E22" t="n">
         <v>16.18</v>
@@ -828,7 +828,7 @@
         <v>-12.89</v>
       </c>
       <c r="D23" t="n">
-        <v>-8</v>
+        <v>-7.856</v>
       </c>
       <c r="E23" t="n">
         <v>17.37</v>
@@ -910,7 +910,7 @@
         <v>5.47</v>
       </c>
       <c r="C28" t="n">
-        <v>-12.736</v>
+        <v>-13.219</v>
       </c>
       <c r="D28" t="n">
         <v>-7.75</v>
@@ -927,7 +927,7 @@
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-11.894</v>
+        <v>-11.997</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -978,7 +978,7 @@
         <v>3.16</v>
       </c>
       <c r="C32" t="n">
-        <v>-13.612</v>
+        <v>-13.434</v>
       </c>
       <c r="D32" t="n">
         <v>-8.69</v>
@@ -1015,7 +1015,7 @@
         <v>-11.49</v>
       </c>
       <c r="D34" t="n">
-        <v>-7.888</v>
+        <v>-7.782999999999999</v>
       </c>
       <c r="E34" t="n">
         <v>16.39</v>
@@ -1052,7 +1052,7 @@
         <v>-9.050000000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>17.122</v>
+        <v>16.744</v>
       </c>
     </row>
     <row r="37">
@@ -1114,7 +1114,7 @@
         <v>10.75</v>
       </c>
       <c r="C40" t="n">
-        <v>-12.988</v>
+        <v>-12.644</v>
       </c>
       <c r="D40" t="n">
         <v>-7.23</v>
@@ -1168,7 +1168,7 @@
         <v>-11.77</v>
       </c>
       <c r="D43" t="n">
-        <v>-7.784000000000001</v>
+        <v>-7.707000000000001</v>
       </c>
       <c r="E43" t="n">
         <v>16.64</v>
@@ -1202,7 +1202,7 @@
         <v>-11</v>
       </c>
       <c r="D45" t="n">
-        <v>-7.706</v>
+        <v>-7.703999999999999</v>
       </c>
       <c r="E45" t="n">
         <v>16.85</v>
@@ -1222,7 +1222,7 @@
         <v>-8.09</v>
       </c>
       <c r="E46" t="n">
-        <v>17.124</v>
+        <v>16.773</v>
       </c>
     </row>
     <row r="47">
@@ -1287,10 +1287,10 @@
         <v>-14.51</v>
       </c>
       <c r="D50" t="n">
-        <v>-8.208</v>
+        <v>-8.217000000000002</v>
       </c>
       <c r="E50" t="n">
-        <v>16.444</v>
+        <v>16.647</v>
       </c>
     </row>
     <row r="51">
@@ -1304,7 +1304,7 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-8.016</v>
+        <v>-8.349</v>
       </c>
       <c r="E51" t="n">
         <v>17.2</v>
@@ -1318,7 +1318,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.322</v>
+        <v>-11.614</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1403,7 +1403,7 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.706</v>
+        <v>-13.622</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1556,10 +1556,10 @@
         <v>5.18</v>
       </c>
       <c r="C66" t="n">
-        <v>-11.846</v>
+        <v>-11.527</v>
       </c>
       <c r="D66" t="n">
-        <v>-7.63</v>
+        <v>-7.447</v>
       </c>
       <c r="E66" t="n">
         <v>17.07</v>
@@ -1576,7 +1576,7 @@
         <v>-10.67</v>
       </c>
       <c r="D67" t="n">
-        <v>-6.895999999999999</v>
+        <v>-6.768000000000001</v>
       </c>
       <c r="E67" t="n">
         <v>18.14</v>
@@ -1780,7 +1780,7 @@
         <v>-9.779999999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>-7.609999999999999</v>
+        <v>-7.703</v>
       </c>
       <c r="E79" t="n">
         <v>18.4</v>
@@ -1865,7 +1865,7 @@
         <v>-12.28</v>
       </c>
       <c r="D84" t="n">
-        <v>-8.130000000000001</v>
+        <v>-8.141000000000002</v>
       </c>
       <c r="E84" t="n">
         <v>16.54</v>
@@ -2001,7 +2001,7 @@
         <v>-9.49</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.686</v>
+        <v>-6.552</v>
       </c>
       <c r="E92" t="n">
         <v>19.64</v>
@@ -2055,7 +2055,7 @@
         <v>-6.44</v>
       </c>
       <c r="E95" t="n">
-        <v>17.962</v>
+        <v>17.52</v>
       </c>
     </row>
     <row r="96">
@@ -2086,10 +2086,10 @@
         <v>-13.93</v>
       </c>
       <c r="D97" t="n">
-        <v>-8.215999999999999</v>
+        <v>-8.184000000000001</v>
       </c>
       <c r="E97" t="n">
-        <v>16.21400000000001</v>
+        <v>16.597</v>
       </c>
     </row>
     <row r="98">
@@ -2134,7 +2134,7 @@
         <v>5.09</v>
       </c>
       <c r="C100" t="n">
-        <v>-13.336</v>
+        <v>-13.172</v>
       </c>
       <c r="D100" t="n">
         <v>-7.71</v>
